--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam9-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam9-Itga3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.915632</v>
+        <v>5.685592333333333</v>
       </c>
       <c r="H2">
-        <v>35.74689599999999</v>
+        <v>17.056777</v>
       </c>
       <c r="I2">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="J2">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N2">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O2">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P2">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q2">
-        <v>98.53237077793062</v>
+        <v>20.61672535563167</v>
       </c>
       <c r="R2">
-        <v>886.7913370013757</v>
+        <v>185.550528200685</v>
       </c>
       <c r="S2">
-        <v>0.1480223485819282</v>
+        <v>0.05620095057692109</v>
       </c>
       <c r="T2">
-        <v>0.1480223485819282</v>
+        <v>0.05620095057692109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.915632</v>
+        <v>5.685592333333333</v>
       </c>
       <c r="H3">
-        <v>35.74689599999999</v>
+        <v>17.056777</v>
       </c>
       <c r="I3">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="J3">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.363882</v>
       </c>
       <c r="O3">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P3">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q3">
-        <v>1.445294667808</v>
+        <v>0.6896282364793334</v>
       </c>
       <c r="R3">
-        <v>13.007652010272</v>
+        <v>6.206654128314</v>
       </c>
       <c r="S3">
-        <v>0.002171224638490028</v>
+        <v>0.001879918452919449</v>
       </c>
       <c r="T3">
-        <v>0.002171224638490028</v>
+        <v>0.001879918452919449</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.915632</v>
+        <v>5.685592333333333</v>
       </c>
       <c r="H4">
-        <v>35.74689599999999</v>
+        <v>17.056777</v>
       </c>
       <c r="I4">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="J4">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.762117</v>
       </c>
       <c r="O4">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P4">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q4">
-        <v>46.71768590431466</v>
+        <v>22.29153407965655</v>
       </c>
       <c r="R4">
-        <v>420.4591731388319</v>
+        <v>200.623806716909</v>
       </c>
       <c r="S4">
-        <v>0.0701826367646721</v>
+        <v>0.06076645943931701</v>
       </c>
       <c r="T4">
-        <v>0.0701826367646721</v>
+        <v>0.06076645943931701</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>89.40146100000001</v>
       </c>
       <c r="I5">
-        <v>0.5511514941691684</v>
+        <v>0.622926875404983</v>
       </c>
       <c r="J5">
-        <v>0.5511514941691684</v>
+        <v>0.6229268754049829</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N5">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O5">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P5">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q5">
-        <v>246.4252533518073</v>
+        <v>108.060588927745</v>
       </c>
       <c r="R5">
-        <v>2217.827280166266</v>
+        <v>972.5453003497051</v>
       </c>
       <c r="S5">
-        <v>0.3701975753048786</v>
+        <v>0.2945718931053352</v>
       </c>
       <c r="T5">
-        <v>0.3701975753048786</v>
+        <v>0.2945718931053351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>89.40146100000001</v>
       </c>
       <c r="I6">
-        <v>0.5511514941691684</v>
+        <v>0.622926875404983</v>
       </c>
       <c r="J6">
-        <v>0.5511514941691684</v>
+        <v>0.6229268754049829</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.363882</v>
       </c>
       <c r="O6">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P6">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q6">
         <v>3.614620270178</v>
@@ -818,10 +818,10 @@
         <v>32.531582431602</v>
       </c>
       <c r="S6">
-        <v>0.00543014013972585</v>
+        <v>0.009853412297754639</v>
       </c>
       <c r="T6">
-        <v>0.00543014013972585</v>
+        <v>0.009853412297754638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>89.40146100000001</v>
       </c>
       <c r="I7">
-        <v>0.5511514941691684</v>
+        <v>0.622926875404983</v>
       </c>
       <c r="J7">
-        <v>0.5511514941691684</v>
+        <v>0.6229268754049829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.762117</v>
       </c>
       <c r="O7">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P7">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q7">
         <v>116.8389382503264</v>
@@ -880,10 +880,10 @@
         <v>1051.550444252937</v>
       </c>
       <c r="S7">
-        <v>0.175523778724564</v>
+        <v>0.3185015700018932</v>
       </c>
       <c r="T7">
-        <v>0.175523778724564</v>
+        <v>0.3185015700018932</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>37.06015</v>
       </c>
       <c r="I8">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258595</v>
       </c>
       <c r="J8">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258594</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N8">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O8">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P8">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q8">
-        <v>102.1522103873222</v>
+        <v>44.79503567341667</v>
       </c>
       <c r="R8">
-        <v>919.3698934858999</v>
+        <v>403.1553210607501</v>
       </c>
       <c r="S8">
-        <v>0.1534603295849392</v>
+        <v>0.1221107398263624</v>
       </c>
       <c r="T8">
-        <v>0.1534603295849392</v>
+        <v>0.1221107398263624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>37.06015</v>
       </c>
       <c r="I9">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258595</v>
       </c>
       <c r="J9">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258594</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>0.363882</v>
       </c>
       <c r="O9">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P9">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q9">
         <v>1.498391278033333</v>
@@ -1004,10 +1004,10 @@
         <v>13.4855215023</v>
       </c>
       <c r="S9">
-        <v>0.002250990149917806</v>
+        <v>0.004084596981772272</v>
       </c>
       <c r="T9">
-        <v>0.002250990149917806</v>
+        <v>0.004084596981772271</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>37.06015</v>
       </c>
       <c r="I10">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258595</v>
       </c>
       <c r="J10">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258594</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.762117</v>
       </c>
       <c r="O10">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P10">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q10">
         <v>48.43398003750556</v>
@@ -1066,10 +1066,10 @@
         <v>435.90582033755</v>
       </c>
       <c r="S10">
-        <v>0.07276097611088422</v>
+        <v>0.1320304593177248</v>
       </c>
       <c r="T10">
-        <v>0.07276097611088422</v>
+        <v>0.1320304593177248</v>
       </c>
     </row>
   </sheetData>
